--- a/output/old_format.xlsx
+++ b/output/old_format.xlsx
@@ -583,7 +583,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>311</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>568</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>536</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>468</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>599</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>375</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>62</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>189</v>
+        <v>541</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>282</v>
+        <v>570</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>407</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>94</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>328</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>585</v>
+        <v>307</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>553</v>
+        <v>338</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>359</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>485</v>
+        <v>616</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>616</v>
+        <v>370</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>519</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>392</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>205</v>
+        <v>557</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>298</v>
+        <v>586</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>423</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>110</v>
+        <v>496</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>323</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>580</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>548</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>480</v>
+        <v>611</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>611</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>514</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>262</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>387</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>74</v>
+        <v>460</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>201</v>
+        <v>553</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>294</v>
+        <v>582</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>419</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>106</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>569</v>
+        <v>291</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>537</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>469</v>
+        <v>600</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>376</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>190</v>
+        <v>542</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>283</v>
+        <v>571</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>95</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1">
-        <v>581</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1">
-        <v>549</v>
+        <v>334</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1">
-        <v>481</v>
+        <v>612</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1">
-        <v>612</v>
+        <v>366</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1">
-        <v>515</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1">
-        <v>263</v>
+        <v>400</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1">
-        <v>388</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1">
-        <v>75</v>
+        <v>461</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1">
-        <v>449</v>
+        <v>522</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
         <v>21</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1">
-        <v>570</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s">
         <v>21</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
         <v>21</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <v>538</v>
+        <v>323</v>
       </c>
       <c r="B100" t="s">
         <v>21</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <v>344</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
         <v>21</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="B102" t="s">
         <v>21</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <v>470</v>
+        <v>601</v>
       </c>
       <c r="B103" t="s">
         <v>21</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1">
-        <v>601</v>
+        <v>355</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1">
-        <v>252</v>
+        <v>389</v>
       </c>
       <c r="B107" t="s">
         <v>21</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <v>377</v>
+        <v>36</v>
       </c>
       <c r="B108" t="s">
         <v>21</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1">
-        <v>64</v>
+        <v>450</v>
       </c>
       <c r="B109" t="s">
         <v>21</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
         <v>21</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="B111" t="s">
         <v>21</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1">
-        <v>191</v>
+        <v>543</v>
       </c>
       <c r="B112" t="s">
         <v>21</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1">
-        <v>284</v>
+        <v>572</v>
       </c>
       <c r="B113" t="s">
         <v>21</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
         <v>21</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1">
-        <v>96</v>
+        <v>482</v>
       </c>
       <c r="B115" t="s">
         <v>21</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1">
-        <v>2</v>
+        <v>421</v>
       </c>
       <c r="B116" t="s">
         <v>21</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1">
-        <v>314</v>
+        <v>102</v>
       </c>
       <c r="B117" t="s">
         <v>22</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1">
-        <v>571</v>
+        <v>293</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
         <v>22</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1">
-        <v>539</v>
+        <v>324</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1">
-        <v>345</v>
+        <v>69</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1">
-        <v>471</v>
+        <v>602</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1">
-        <v>602</v>
+        <v>356</v>
       </c>
       <c r="B125" t="s">
         <v>22</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1">
-        <v>505</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1">
-        <v>253</v>
+        <v>390</v>
       </c>
       <c r="B127" t="s">
         <v>22</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="B128" t="s">
         <v>22</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1">
-        <v>65</v>
+        <v>451</v>
       </c>
       <c r="B129" t="s">
         <v>22</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="B131" t="s">
         <v>22</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1">
-        <v>192</v>
+        <v>544</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1">
-        <v>285</v>
+        <v>573</v>
       </c>
       <c r="B133" t="s">
         <v>22</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1">
-        <v>410</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>22</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1">
-        <v>97</v>
+        <v>483</v>
       </c>
       <c r="B135" t="s">
         <v>22</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="B136" t="s">
         <v>22</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1">
-        <v>332</v>
+        <v>120</v>
       </c>
       <c r="B137" t="s">
         <v>23</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1">
-        <v>589</v>
+        <v>311</v>
       </c>
       <c r="B138" t="s">
         <v>23</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="B139" t="s">
         <v>23</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1">
-        <v>557</v>
+        <v>342</v>
       </c>
       <c r="B140" t="s">
         <v>23</v>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1">
-        <v>363</v>
+        <v>87</v>
       </c>
       <c r="B141" t="s">
         <v>23</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="B142" t="s">
         <v>23</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1">
-        <v>490</v>
+        <v>621</v>
       </c>
       <c r="B143" t="s">
         <v>23</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
         <v>23</v>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="1">
-        <v>621</v>
+        <v>375</v>
       </c>
       <c r="B145" t="s">
         <v>23</v>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="1">
-        <v>524</v>
+        <v>22</v>
       </c>
       <c r="B146" t="s">
         <v>23</v>
@@ -7038,7 +7038,7 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="1">
-        <v>271</v>
+        <v>408</v>
       </c>
       <c r="B147" t="s">
         <v>23</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="1">
-        <v>396</v>
+        <v>55</v>
       </c>
       <c r="B148" t="s">
         <v>23</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="1">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="B149" t="s">
         <v>23</v>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="1">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B150" t="s">
         <v>23</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="1">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="B151" t="s">
         <v>23</v>
@@ -7258,7 +7258,7 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="1">
-        <v>208</v>
+        <v>560</v>
       </c>
       <c r="B152" t="s">
         <v>23</v>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="1">
-        <v>301</v>
+        <v>589</v>
       </c>
       <c r="B153" t="s">
         <v>23</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="1">
-        <v>426</v>
+        <v>149</v>
       </c>
       <c r="B154" t="s">
         <v>23</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="1">
-        <v>113</v>
+        <v>499</v>
       </c>
       <c r="B155" t="s">
         <v>23</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="1">
-        <v>19</v>
+        <v>438</v>
       </c>
       <c r="B156" t="s">
         <v>23</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="1">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="B157" t="s">
         <v>24</v>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="1">
-        <v>559</v>
+        <v>344</v>
       </c>
       <c r="B158" t="s">
         <v>24</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="1">
-        <v>365</v>
+        <v>89</v>
       </c>
       <c r="B159" t="s">
         <v>24</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="1">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="B160" t="s">
         <v>24</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="161" spans="1:17">
       <c r="A161" s="1">
-        <v>492</v>
+        <v>623</v>
       </c>
       <c r="B161" t="s">
         <v>24</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="162" spans="1:17">
       <c r="A162" s="1">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="B162" t="s">
         <v>24</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="163" spans="1:17">
       <c r="A163" s="1">
-        <v>623</v>
+        <v>377</v>
       </c>
       <c r="B163" t="s">
         <v>24</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="164" spans="1:17">
       <c r="A164" s="1">
-        <v>526</v>
+        <v>24</v>
       </c>
       <c r="B164" t="s">
         <v>24</v>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="165" spans="1:17">
       <c r="A165" s="1">
-        <v>273</v>
+        <v>410</v>
       </c>
       <c r="B165" t="s">
         <v>24</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="166" spans="1:17">
       <c r="A166" s="1">
-        <v>398</v>
+        <v>57</v>
       </c>
       <c r="B166" t="s">
         <v>24</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="167" spans="1:17">
       <c r="A167" s="1">
-        <v>85</v>
+        <v>471</v>
       </c>
       <c r="B167" t="s">
         <v>24</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="168" spans="1:17">
       <c r="A168" s="1">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B168" t="s">
         <v>24</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="169" spans="1:17">
       <c r="A169" s="1">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="B169" t="s">
         <v>24</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="170" spans="1:17">
       <c r="A170" s="1">
-        <v>210</v>
+        <v>562</v>
       </c>
       <c r="B170" t="s">
         <v>24</v>
@@ -8166,7 +8166,7 @@
     </row>
     <row r="171" spans="1:17">
       <c r="A171" s="1">
-        <v>303</v>
+        <v>591</v>
       </c>
       <c r="B171" t="s">
         <v>24</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="172" spans="1:17">
       <c r="A172" s="1">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="B172" t="s">
         <v>24</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="173" spans="1:17">
       <c r="A173" s="1">
-        <v>115</v>
+        <v>501</v>
       </c>
       <c r="B173" t="s">
         <v>24</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="174" spans="1:17">
       <c r="A174" s="1">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B174" t="s">
         <v>24</v>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="175" spans="1:17">
       <c r="A175" s="1">
-        <v>337</v>
+        <v>125</v>
       </c>
       <c r="B175" t="s">
         <v>25</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="176" spans="1:17">
       <c r="A176" s="1">
-        <v>594</v>
+        <v>316</v>
       </c>
       <c r="B176" t="s">
         <v>25</v>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="177" spans="1:17">
       <c r="A177" s="1">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B177" t="s">
         <v>25</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="178" spans="1:17">
       <c r="A178" s="1">
-        <v>563</v>
+        <v>348</v>
       </c>
       <c r="B178" t="s">
         <v>25</v>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="1">
-        <v>370</v>
+        <v>94</v>
       </c>
       <c r="B179" t="s">
         <v>25</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="180" spans="1:17">
       <c r="A180" s="1">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="B180" t="s">
         <v>25</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="181" spans="1:17">
       <c r="A181" s="1">
-        <v>497</v>
+        <v>628</v>
       </c>
       <c r="B181" t="s">
         <v>25</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="182" spans="1:17">
       <c r="A182" s="1">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="183" spans="1:17">
       <c r="A183" s="1">
-        <v>628</v>
+        <v>382</v>
       </c>
       <c r="B183" t="s">
         <v>25</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="184" spans="1:17">
       <c r="A184" s="1">
-        <v>531</v>
+        <v>29</v>
       </c>
       <c r="B184" t="s">
         <v>25</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="185" spans="1:17">
       <c r="A185" s="1">
-        <v>278</v>
+        <v>415</v>
       </c>
       <c r="B185" t="s">
         <v>25</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="186" spans="1:17">
       <c r="A186" s="1">
-        <v>403</v>
+        <v>62</v>
       </c>
       <c r="B186" t="s">
         <v>25</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="187" spans="1:17">
       <c r="A187" s="1">
-        <v>90</v>
+        <v>476</v>
       </c>
       <c r="B187" t="s">
         <v>25</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="188" spans="1:17">
       <c r="A188" s="1">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B188" t="s">
         <v>25</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="189" spans="1:17">
       <c r="A189" s="1">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="B189" t="s">
         <v>25</v>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="190" spans="1:17">
       <c r="A190" s="1">
-        <v>215</v>
+        <v>567</v>
       </c>
       <c r="B190" t="s">
         <v>25</v>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="191" spans="1:17">
       <c r="A191" s="1">
-        <v>308</v>
+        <v>596</v>
       </c>
       <c r="B191" t="s">
         <v>25</v>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="192" spans="1:17">
       <c r="A192" s="1">
-        <v>433</v>
+        <v>156</v>
       </c>
       <c r="B192" t="s">
         <v>25</v>
@@ -9209,7 +9209,7 @@
     </row>
     <row r="193" spans="1:17">
       <c r="A193" s="1">
-        <v>120</v>
+        <v>506</v>
       </c>
       <c r="B193" t="s">
         <v>25</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="194" spans="1:17">
       <c r="A194" s="1">
-        <v>26</v>
+        <v>445</v>
       </c>
       <c r="B194" t="s">
         <v>25</v>
@@ -9291,7 +9291,7 @@
     </row>
     <row r="195" spans="1:17">
       <c r="A195" s="1">
-        <v>338</v>
+        <v>126</v>
       </c>
       <c r="B195" t="s">
         <v>26</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="196" spans="1:17">
       <c r="A196" s="1">
-        <v>595</v>
+        <v>317</v>
       </c>
       <c r="B196" t="s">
         <v>26</v>
@@ -9379,7 +9379,7 @@
     </row>
     <row r="197" spans="1:17">
       <c r="A197" s="1">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B197" t="s">
         <v>26</v>
@@ -9420,7 +9420,7 @@
     </row>
     <row r="198" spans="1:17">
       <c r="A198" s="1">
-        <v>564</v>
+        <v>349</v>
       </c>
       <c r="B198" t="s">
         <v>26</v>
@@ -9470,7 +9470,7 @@
     </row>
     <row r="199" spans="1:17">
       <c r="A199" s="1">
-        <v>371</v>
+        <v>95</v>
       </c>
       <c r="B199" t="s">
         <v>26</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="200" spans="1:17">
       <c r="A200" s="1">
-        <v>498</v>
+        <v>629</v>
       </c>
       <c r="B200" t="s">
         <v>26</v>
@@ -9570,7 +9570,7 @@
     </row>
     <row r="201" spans="1:17">
       <c r="A201" s="1">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="B201" t="s">
         <v>26</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="202" spans="1:17">
       <c r="A202" s="1">
-        <v>629</v>
+        <v>383</v>
       </c>
       <c r="B202" t="s">
         <v>26</v>
@@ -9670,7 +9670,7 @@
     </row>
     <row r="203" spans="1:17">
       <c r="A203" s="1">
-        <v>532</v>
+        <v>30</v>
       </c>
       <c r="B203" t="s">
         <v>26</v>
@@ -9720,7 +9720,7 @@
     </row>
     <row r="204" spans="1:17">
       <c r="A204" s="1">
-        <v>279</v>
+        <v>416</v>
       </c>
       <c r="B204" t="s">
         <v>26</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="205" spans="1:17">
       <c r="A205" s="1">
-        <v>404</v>
+        <v>63</v>
       </c>
       <c r="B205" t="s">
         <v>26</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="206" spans="1:17">
       <c r="A206" s="1">
-        <v>91</v>
+        <v>477</v>
       </c>
       <c r="B206" t="s">
         <v>26</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="207" spans="1:17">
       <c r="A207" s="1">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B207" t="s">
         <v>26</v>
@@ -9926,7 +9926,7 @@
     </row>
     <row r="208" spans="1:17">
       <c r="A208" s="1">
-        <v>465</v>
+        <v>538</v>
       </c>
       <c r="B208" t="s">
         <v>26</v>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="209" spans="1:17">
       <c r="A209" s="1">
-        <v>216</v>
+        <v>568</v>
       </c>
       <c r="B209" t="s">
         <v>26</v>
@@ -10023,7 +10023,7 @@
     </row>
     <row r="210" spans="1:17">
       <c r="A210" s="1">
-        <v>309</v>
+        <v>597</v>
       </c>
       <c r="B210" t="s">
         <v>26</v>
@@ -10070,7 +10070,7 @@
     </row>
     <row r="211" spans="1:17">
       <c r="A211" s="1">
-        <v>434</v>
+        <v>157</v>
       </c>
       <c r="B211" t="s">
         <v>26</v>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="212" spans="1:17">
       <c r="A212" s="1">
-        <v>121</v>
+        <v>507</v>
       </c>
       <c r="B212" t="s">
         <v>26</v>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="213" spans="1:17">
       <c r="A213" s="1">
-        <v>27</v>
+        <v>446</v>
       </c>
       <c r="B213" t="s">
         <v>26</v>
@@ -10196,7 +10196,7 @@
     </row>
     <row r="214" spans="1:17">
       <c r="A214" s="1">
-        <v>329</v>
+        <v>117</v>
       </c>
       <c r="B214" t="s">
         <v>27</v>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="215" spans="1:17">
       <c r="A215" s="1">
-        <v>586</v>
+        <v>308</v>
       </c>
       <c r="B215" t="s">
         <v>27</v>
@@ -10287,7 +10287,7 @@
     </row>
     <row r="216" spans="1:17">
       <c r="A216" s="1">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="B216" t="s">
         <v>27</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="1">
-        <v>554</v>
+        <v>339</v>
       </c>
       <c r="B217" t="s">
         <v>27</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="218" spans="1:17">
       <c r="A218" s="1">
-        <v>360</v>
+        <v>84</v>
       </c>
       <c r="B218" t="s">
         <v>27</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="219" spans="1:17">
       <c r="A219" s="1">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="B219" t="s">
         <v>27</v>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="1">
-        <v>486</v>
+        <v>617</v>
       </c>
       <c r="B220" t="s">
         <v>27</v>
@@ -10531,7 +10531,7 @@
     </row>
     <row r="221" spans="1:17">
       <c r="A221" s="1">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B221" t="s">
         <v>27</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="222" spans="1:17">
       <c r="A222" s="1">
-        <v>617</v>
+        <v>371</v>
       </c>
       <c r="B222" t="s">
         <v>27</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="223" spans="1:17">
       <c r="A223" s="1">
-        <v>520</v>
+        <v>18</v>
       </c>
       <c r="B223" t="s">
         <v>27</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="1">
-        <v>268</v>
+        <v>405</v>
       </c>
       <c r="B224" t="s">
         <v>27</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="1">
-        <v>393</v>
+        <v>52</v>
       </c>
       <c r="B225" t="s">
         <v>27</v>
@@ -10772,7 +10772,7 @@
     </row>
     <row r="226" spans="1:17">
       <c r="A226" s="1">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="B226" t="s">
         <v>27</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="1">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B227" t="s">
         <v>27</v>
@@ -10875,7 +10875,7 @@
     </row>
     <row r="228" spans="1:17">
       <c r="A228" s="1">
-        <v>454</v>
+        <v>527</v>
       </c>
       <c r="B228" t="s">
         <v>27</v>
@@ -10925,7 +10925,7 @@
     </row>
     <row r="229" spans="1:17">
       <c r="A229" s="1">
-        <v>206</v>
+        <v>558</v>
       </c>
       <c r="B229" t="s">
         <v>27</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="230" spans="1:17">
       <c r="A230" s="1">
-        <v>299</v>
+        <v>587</v>
       </c>
       <c r="B230" t="s">
         <v>27</v>
@@ -11016,7 +11016,7 @@
     </row>
     <row r="231" spans="1:17">
       <c r="A231" s="1">
-        <v>424</v>
+        <v>147</v>
       </c>
       <c r="B231" t="s">
         <v>27</v>
@@ -11063,7 +11063,7 @@
     </row>
     <row r="232" spans="1:17">
       <c r="A232" s="1">
-        <v>111</v>
+        <v>497</v>
       </c>
       <c r="B232" t="s">
         <v>27</v>
@@ -11107,7 +11107,7 @@
     </row>
     <row r="233" spans="1:17">
       <c r="A233" s="1">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="B233" t="s">
         <v>27</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="234" spans="1:17">
       <c r="A234" s="1">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="B234" t="s">
         <v>28</v>
@@ -11192,7 +11192,7 @@
     </row>
     <row r="235" spans="1:17">
       <c r="A235" s="1">
-        <v>572</v>
+        <v>294</v>
       </c>
       <c r="B235" t="s">
         <v>28</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="236" spans="1:17">
       <c r="A236" s="1">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B236" t="s">
         <v>28</v>
@@ -11274,7 +11274,7 @@
     </row>
     <row r="237" spans="1:17">
       <c r="A237" s="1">
-        <v>540</v>
+        <v>325</v>
       </c>
       <c r="B237" t="s">
         <v>28</v>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="238" spans="1:17">
       <c r="A238" s="1">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="B238" t="s">
         <v>28</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="239" spans="1:17">
       <c r="A239" s="1">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="B239" t="s">
         <v>28</v>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="240" spans="1:17">
       <c r="A240" s="1">
-        <v>472</v>
+        <v>603</v>
       </c>
       <c r="B240" t="s">
         <v>28</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="241" spans="1:16">
       <c r="A241" s="1">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="B241" t="s">
         <v>28</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="242" spans="1:16">
       <c r="A242" s="1">
-        <v>603</v>
+        <v>357</v>
       </c>
       <c r="B242" t="s">
         <v>28</v>
@@ -11556,7 +11556,7 @@
     </row>
     <row r="243" spans="1:16">
       <c r="A243" s="1">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="B243" t="s">
         <v>28</v>
@@ -11600,7 +11600,7 @@
     </row>
     <row r="244" spans="1:16">
       <c r="A244" s="1">
-        <v>254</v>
+        <v>391</v>
       </c>
       <c r="B244" t="s">
         <v>28</v>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="245" spans="1:16">
       <c r="A245" s="1">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="B245" t="s">
         <v>28</v>
@@ -11694,7 +11694,7 @@
     </row>
     <row r="246" spans="1:16">
       <c r="A246" s="1">
-        <v>66</v>
+        <v>452</v>
       </c>
       <c r="B246" t="s">
         <v>28</v>
@@ -11741,7 +11741,7 @@
     </row>
     <row r="247" spans="1:16">
       <c r="A247" s="1">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B247" t="s">
         <v>28</v>
@@ -11788,7 +11788,7 @@
     </row>
     <row r="248" spans="1:16">
       <c r="A248" s="1">
-        <v>440</v>
+        <v>513</v>
       </c>
       <c r="B248" t="s">
         <v>28</v>
@@ -11835,7 +11835,7 @@
     </row>
     <row r="249" spans="1:16">
       <c r="A249" s="1">
-        <v>193</v>
+        <v>545</v>
       </c>
       <c r="B249" t="s">
         <v>28</v>
@@ -11876,7 +11876,7 @@
     </row>
     <row r="250" spans="1:16">
       <c r="A250" s="1">
-        <v>286</v>
+        <v>574</v>
       </c>
       <c r="B250" t="s">
         <v>28</v>
@@ -11917,7 +11917,7 @@
     </row>
     <row r="251" spans="1:16">
       <c r="A251" s="1">
-        <v>411</v>
+        <v>134</v>
       </c>
       <c r="B251" t="s">
         <v>28</v>
@@ -11958,7 +11958,7 @@
     </row>
     <row r="252" spans="1:16">
       <c r="A252" s="1">
-        <v>98</v>
+        <v>484</v>
       </c>
       <c r="B252" t="s">
         <v>28</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="253" spans="1:16">
       <c r="A253" s="1">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="B253" t="s">
         <v>28</v>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="254" spans="1:16">
       <c r="A254" s="1">
-        <v>326</v>
+        <v>114</v>
       </c>
       <c r="B254" t="s">
         <v>29</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="255" spans="1:16">
       <c r="A255" s="1">
-        <v>583</v>
+        <v>305</v>
       </c>
       <c r="B255" t="s">
         <v>29</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="256" spans="1:16">
       <c r="A256" s="1">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B256" t="s">
         <v>29</v>
@@ -12151,7 +12151,7 @@
     </row>
     <row r="257" spans="1:17">
       <c r="A257" s="1">
-        <v>551</v>
+        <v>336</v>
       </c>
       <c r="B257" t="s">
         <v>29</v>
@@ -12171,7 +12171,7 @@
     </row>
     <row r="258" spans="1:17">
       <c r="A258" s="1">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="B258" t="s">
         <v>29</v>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="259" spans="1:17">
       <c r="A259" s="1">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="B259" t="s">
         <v>29</v>
@@ -12268,7 +12268,7 @@
     </row>
     <row r="260" spans="1:17">
       <c r="A260" s="1">
-        <v>483</v>
+        <v>614</v>
       </c>
       <c r="B260" t="s">
         <v>29</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="261" spans="1:17">
       <c r="A261" s="1">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="B261" t="s">
         <v>29</v>
@@ -12350,7 +12350,7 @@
     </row>
     <row r="262" spans="1:17">
       <c r="A262" s="1">
-        <v>614</v>
+        <v>368</v>
       </c>
       <c r="B262" t="s">
         <v>29</v>
@@ -12400,7 +12400,7 @@
     </row>
     <row r="263" spans="1:17">
       <c r="A263" s="1">
-        <v>517</v>
+        <v>15</v>
       </c>
       <c r="B263" t="s">
         <v>29</v>
@@ -12450,7 +12450,7 @@
     </row>
     <row r="264" spans="1:17">
       <c r="A264" s="1">
-        <v>265</v>
+        <v>402</v>
       </c>
       <c r="B264" t="s">
         <v>29</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="265" spans="1:17">
       <c r="A265" s="1">
-        <v>390</v>
+        <v>49</v>
       </c>
       <c r="B265" t="s">
         <v>29</v>
@@ -12550,7 +12550,7 @@
     </row>
     <row r="266" spans="1:17">
       <c r="A266" s="1">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="B266" t="s">
         <v>29</v>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="267" spans="1:17">
       <c r="A267" s="1">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B267" t="s">
         <v>29</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="268" spans="1:17">
       <c r="A268" s="1">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="B268" t="s">
         <v>29</v>
@@ -12703,7 +12703,7 @@
     </row>
     <row r="269" spans="1:17">
       <c r="A269" s="1">
-        <v>203</v>
+        <v>555</v>
       </c>
       <c r="B269" t="s">
         <v>29</v>
@@ -12750,7 +12750,7 @@
     </row>
     <row r="270" spans="1:17">
       <c r="A270" s="1">
-        <v>296</v>
+        <v>584</v>
       </c>
       <c r="B270" t="s">
         <v>29</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="271" spans="1:17">
       <c r="A271" s="1">
-        <v>421</v>
+        <v>144</v>
       </c>
       <c r="B271" t="s">
         <v>29</v>
@@ -12838,7 +12838,7 @@
     </row>
     <row r="272" spans="1:17">
       <c r="A272" s="1">
-        <v>108</v>
+        <v>494</v>
       </c>
       <c r="B272" t="s">
         <v>29</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="273" spans="1:17">
       <c r="A273" s="1">
-        <v>14</v>
+        <v>433</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="274" spans="1:17">
       <c r="A274" s="1">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="B274" t="s">
         <v>30</v>
@@ -12961,7 +12961,7 @@
     </row>
     <row r="275" spans="1:17">
       <c r="A275" s="1">
-        <v>587</v>
+        <v>309</v>
       </c>
       <c r="B275" t="s">
         <v>30</v>
@@ -13008,7 +13008,7 @@
     </row>
     <row r="276" spans="1:17">
       <c r="A276" s="1">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B276" t="s">
         <v>30</v>
@@ -13052,7 +13052,7 @@
     </row>
     <row r="277" spans="1:17">
       <c r="A277" s="1">
-        <v>555</v>
+        <v>340</v>
       </c>
       <c r="B277" t="s">
         <v>30</v>
@@ -13099,7 +13099,7 @@
     </row>
     <row r="278" spans="1:17">
       <c r="A278" s="1">
-        <v>361</v>
+        <v>85</v>
       </c>
       <c r="B278" t="s">
         <v>30</v>
@@ -13149,7 +13149,7 @@
     </row>
     <row r="279" spans="1:17">
       <c r="A279" s="1">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="B279" t="s">
         <v>30</v>
@@ -13202,7 +13202,7 @@
     </row>
     <row r="280" spans="1:17">
       <c r="A280" s="1">
-        <v>487</v>
+        <v>618</v>
       </c>
       <c r="B280" t="s">
         <v>30</v>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="281" spans="1:17">
       <c r="A281" s="1">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B281" t="s">
         <v>30</v>
@@ -13302,7 +13302,7 @@
     </row>
     <row r="282" spans="1:17">
       <c r="A282" s="1">
-        <v>618</v>
+        <v>372</v>
       </c>
       <c r="B282" t="s">
         <v>30</v>
@@ -13349,7 +13349,7 @@
     </row>
     <row r="283" spans="1:17">
       <c r="A283" s="1">
-        <v>521</v>
+        <v>19</v>
       </c>
       <c r="B283" t="s">
         <v>30</v>
@@ -13396,7 +13396,7 @@
     </row>
     <row r="284" spans="1:17">
       <c r="A284" s="1">
-        <v>269</v>
+        <v>406</v>
       </c>
       <c r="B284" t="s">
         <v>30</v>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="285" spans="1:17">
       <c r="A285" s="1">
-        <v>394</v>
+        <v>53</v>
       </c>
       <c r="B285" t="s">
         <v>30</v>
@@ -13490,7 +13490,7 @@
     </row>
     <row r="286" spans="1:17">
       <c r="A286" s="1">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="B286" t="s">
         <v>30</v>
@@ -13540,7 +13540,7 @@
     </row>
     <row r="287" spans="1:17">
       <c r="A287" s="1">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B287" t="s">
         <v>30</v>
@@ -13593,7 +13593,7 @@
     </row>
     <row r="288" spans="1:17">
       <c r="A288" s="1">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="B288" t="s">
         <v>30</v>
@@ -13643,7 +13643,7 @@
     </row>
     <row r="289" spans="1:16">
       <c r="A289" s="1">
-        <v>207</v>
+        <v>559</v>
       </c>
       <c r="B289" t="s">
         <v>30</v>
@@ -13687,7 +13687,7 @@
     </row>
     <row r="290" spans="1:16">
       <c r="A290" s="1">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="B290" t="s">
         <v>30</v>
@@ -13734,7 +13734,7 @@
     </row>
     <row r="291" spans="1:16">
       <c r="A291" s="1">
-        <v>425</v>
+        <v>148</v>
       </c>
       <c r="B291" t="s">
         <v>30</v>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="292" spans="1:16">
       <c r="A292" s="1">
-        <v>112</v>
+        <v>498</v>
       </c>
       <c r="B292" t="s">
         <v>30</v>
@@ -13825,7 +13825,7 @@
     </row>
     <row r="293" spans="1:16">
       <c r="A293" s="1">
-        <v>18</v>
+        <v>437</v>
       </c>
       <c r="B293" t="s">
         <v>30</v>
@@ -13869,7 +13869,7 @@
     </row>
     <row r="294" spans="1:16">
       <c r="A294" s="1">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c r="B294" t="s">
         <v>31</v>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="295" spans="1:16">
       <c r="A295" s="1">
-        <v>573</v>
+        <v>295</v>
       </c>
       <c r="B295" t="s">
         <v>31</v>
@@ -13954,7 +13954,7 @@
     </row>
     <row r="296" spans="1:16">
       <c r="A296" s="1">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B296" t="s">
         <v>31</v>
@@ -13992,7 +13992,7 @@
     </row>
     <row r="297" spans="1:16">
       <c r="A297" s="1">
-        <v>541</v>
+        <v>326</v>
       </c>
       <c r="B297" t="s">
         <v>31</v>
@@ -14039,7 +14039,7 @@
     </row>
     <row r="298" spans="1:16">
       <c r="A298" s="1">
-        <v>347</v>
+        <v>71</v>
       </c>
       <c r="B298" t="s">
         <v>31</v>
@@ -14086,7 +14086,7 @@
     </row>
     <row r="299" spans="1:16">
       <c r="A299" s="1">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="B299" t="s">
         <v>31</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="300" spans="1:16">
       <c r="A300" s="1">
-        <v>473</v>
+        <v>604</v>
       </c>
       <c r="B300" t="s">
         <v>31</v>
@@ -14180,7 +14180,7 @@
     </row>
     <row r="301" spans="1:16">
       <c r="A301" s="1">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="B301" t="s">
         <v>31</v>
@@ -14227,7 +14227,7 @@
     </row>
     <row r="302" spans="1:16">
       <c r="A302" s="1">
-        <v>604</v>
+        <v>358</v>
       </c>
       <c r="B302" t="s">
         <v>31</v>
@@ -14271,7 +14271,7 @@
     </row>
     <row r="303" spans="1:16">
       <c r="A303" s="1">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="B303" t="s">
         <v>31</v>
@@ -14315,7 +14315,7 @@
     </row>
     <row r="304" spans="1:16">
       <c r="A304" s="1">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="B304" t="s">
         <v>31</v>
@@ -14362,7 +14362,7 @@
     </row>
     <row r="305" spans="1:17">
       <c r="A305" s="1">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="B305" t="s">
         <v>31</v>
@@ -14409,7 +14409,7 @@
     </row>
     <row r="306" spans="1:17">
       <c r="A306" s="1">
-        <v>67</v>
+        <v>453</v>
       </c>
       <c r="B306" t="s">
         <v>31</v>
@@ -14456,7 +14456,7 @@
     </row>
     <row r="307" spans="1:17">
       <c r="A307" s="1">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B307" t="s">
         <v>31</v>
@@ -14503,7 +14503,7 @@
     </row>
     <row r="308" spans="1:17">
       <c r="A308" s="1">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="B308" t="s">
         <v>31</v>
@@ -14550,7 +14550,7 @@
     </row>
     <row r="309" spans="1:17">
       <c r="A309" s="1">
-        <v>194</v>
+        <v>546</v>
       </c>
       <c r="B309" t="s">
         <v>31</v>
@@ -14591,7 +14591,7 @@
     </row>
     <row r="310" spans="1:17">
       <c r="A310" s="1">
-        <v>287</v>
+        <v>575</v>
       </c>
       <c r="B310" t="s">
         <v>31</v>
@@ -14632,7 +14632,7 @@
     </row>
     <row r="311" spans="1:17">
       <c r="A311" s="1">
-        <v>412</v>
+        <v>135</v>
       </c>
       <c r="B311" t="s">
         <v>31</v>
@@ -14673,7 +14673,7 @@
     </row>
     <row r="312" spans="1:17">
       <c r="A312" s="1">
-        <v>99</v>
+        <v>485</v>
       </c>
       <c r="B312" t="s">
         <v>31</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="313" spans="1:17">
       <c r="A313" s="1">
-        <v>5</v>
+        <v>424</v>
       </c>
       <c r="B313" t="s">
         <v>31</v>
@@ -14755,7 +14755,7 @@
     </row>
     <row r="314" spans="1:17">
       <c r="A314" s="1">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="B314" t="s">
         <v>32</v>
@@ -14802,7 +14802,7 @@
     </row>
     <row r="315" spans="1:17">
       <c r="A315" s="1">
-        <v>591</v>
+        <v>313</v>
       </c>
       <c r="B315" t="s">
         <v>32</v>
@@ -14849,7 +14849,7 @@
     </row>
     <row r="316" spans="1:17">
       <c r="A316" s="1">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B316" t="s">
         <v>32</v>
@@ -14893,7 +14893,7 @@
     </row>
     <row r="317" spans="1:17">
       <c r="A317" s="1">
-        <v>560</v>
+        <v>345</v>
       </c>
       <c r="B317" t="s">
         <v>32</v>
@@ -14943,7 +14943,7 @@
     </row>
     <row r="318" spans="1:17">
       <c r="A318" s="1">
-        <v>366</v>
+        <v>90</v>
       </c>
       <c r="B318" t="s">
         <v>32</v>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="319" spans="1:17">
       <c r="A319" s="1">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="B319" t="s">
         <v>32</v>
@@ -15046,7 +15046,7 @@
     </row>
     <row r="320" spans="1:17">
       <c r="A320" s="1">
-        <v>493</v>
+        <v>624</v>
       </c>
       <c r="B320" t="s">
         <v>32</v>
@@ -15099,7 +15099,7 @@
     </row>
     <row r="321" spans="1:17">
       <c r="A321" s="1">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="B321" t="s">
         <v>32</v>
@@ -15152,7 +15152,7 @@
     </row>
     <row r="322" spans="1:17">
       <c r="A322" s="1">
-        <v>624</v>
+        <v>378</v>
       </c>
       <c r="B322" t="s">
         <v>32</v>
@@ -15202,7 +15202,7 @@
     </row>
     <row r="323" spans="1:17">
       <c r="A323" s="1">
-        <v>527</v>
+        <v>25</v>
       </c>
       <c r="B323" t="s">
         <v>32</v>
@@ -15252,7 +15252,7 @@
     </row>
     <row r="324" spans="1:17">
       <c r="A324" s="1">
-        <v>274</v>
+        <v>411</v>
       </c>
       <c r="B324" t="s">
         <v>32</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="325" spans="1:17">
       <c r="A325" s="1">
-        <v>399</v>
+        <v>58</v>
       </c>
       <c r="B325" t="s">
         <v>32</v>
@@ -15355,7 +15355,7 @@
     </row>
     <row r="326" spans="1:17">
       <c r="A326" s="1">
-        <v>86</v>
+        <v>472</v>
       </c>
       <c r="B326" t="s">
         <v>32</v>
@@ -15405,7 +15405,7 @@
     </row>
     <row r="327" spans="1:17">
       <c r="A327" s="1">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B327" t="s">
         <v>32</v>
@@ -15458,7 +15458,7 @@
     </row>
     <row r="328" spans="1:17">
       <c r="A328" s="1">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="B328" t="s">
         <v>32</v>
@@ -15508,7 +15508,7 @@
     </row>
     <row r="329" spans="1:17">
       <c r="A329" s="1">
-        <v>211</v>
+        <v>563</v>
       </c>
       <c r="B329" t="s">
         <v>32</v>
@@ -15555,7 +15555,7 @@
     </row>
     <row r="330" spans="1:17">
       <c r="A330" s="1">
-        <v>304</v>
+        <v>592</v>
       </c>
       <c r="B330" t="s">
         <v>32</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="331" spans="1:17">
       <c r="A331" s="1">
-        <v>429</v>
+        <v>152</v>
       </c>
       <c r="B331" t="s">
         <v>32</v>
@@ -15643,7 +15643,7 @@
     </row>
     <row r="332" spans="1:17">
       <c r="A332" s="1">
-        <v>116</v>
+        <v>502</v>
       </c>
       <c r="B332" t="s">
         <v>32</v>
@@ -15681,7 +15681,7 @@
     </row>
     <row r="333" spans="1:17">
       <c r="A333" s="1">
-        <v>22</v>
+        <v>441</v>
       </c>
       <c r="B333" t="s">
         <v>32</v>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="334" spans="1:17">
       <c r="A334" s="1">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="B334" t="s">
         <v>33</v>
@@ -15772,7 +15772,7 @@
     </row>
     <row r="335" spans="1:17">
       <c r="A335" s="1">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="B335" t="s">
         <v>33</v>
@@ -15816,7 +15816,7 @@
     </row>
     <row r="336" spans="1:17">
       <c r="A336" s="1">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="B336" t="s">
         <v>33</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="337" spans="1:17">
       <c r="A337" s="1">
-        <v>619</v>
+        <v>373</v>
       </c>
       <c r="B337" t="s">
         <v>33</v>
@@ -15907,7 +15907,7 @@
     </row>
     <row r="338" spans="1:17">
       <c r="A338" s="1">
-        <v>522</v>
+        <v>20</v>
       </c>
       <c r="B338" t="s">
         <v>33</v>
@@ -15951,7 +15951,7 @@
     </row>
     <row r="339" spans="1:17">
       <c r="A339" s="1">
-        <v>335</v>
+        <v>123</v>
       </c>
       <c r="B339" t="s">
         <v>34</v>
@@ -15998,7 +15998,7 @@
     </row>
     <row r="340" spans="1:17">
       <c r="A340" s="1">
-        <v>592</v>
+        <v>314</v>
       </c>
       <c r="B340" t="s">
         <v>34</v>
@@ -16036,7 +16036,7 @@
     </row>
     <row r="341" spans="1:17">
       <c r="A341" s="1">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="B341" t="s">
         <v>34</v>
@@ -16077,7 +16077,7 @@
     </row>
     <row r="342" spans="1:17">
       <c r="A342" s="1">
-        <v>561</v>
+        <v>346</v>
       </c>
       <c r="B342" t="s">
         <v>34</v>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="343" spans="1:17">
       <c r="A343" s="1">
-        <v>367</v>
+        <v>91</v>
       </c>
       <c r="B343" t="s">
         <v>34</v>
@@ -16177,7 +16177,7 @@
     </row>
     <row r="344" spans="1:17">
       <c r="A344" s="1">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="B344" t="s">
         <v>34</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="345" spans="1:17">
       <c r="A345" s="1">
-        <v>494</v>
+        <v>625</v>
       </c>
       <c r="B345" t="s">
         <v>34</v>
@@ -16280,7 +16280,7 @@
     </row>
     <row r="346" spans="1:17">
       <c r="A346" s="1">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="B346" t="s">
         <v>34</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="347" spans="1:17">
       <c r="A347" s="1">
-        <v>625</v>
+        <v>379</v>
       </c>
       <c r="B347" t="s">
         <v>34</v>
@@ -16347,7 +16347,7 @@
     </row>
     <row r="348" spans="1:17">
       <c r="A348" s="1">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="B348" t="s">
         <v>34</v>
@@ -16394,7 +16394,7 @@
     </row>
     <row r="349" spans="1:17">
       <c r="A349" s="1">
-        <v>275</v>
+        <v>412</v>
       </c>
       <c r="B349" t="s">
         <v>34</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="350" spans="1:17">
       <c r="A350" s="1">
-        <v>400</v>
+        <v>59</v>
       </c>
       <c r="B350" t="s">
         <v>34</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="351" spans="1:17">
       <c r="A351" s="1">
-        <v>87</v>
+        <v>473</v>
       </c>
       <c r="B351" t="s">
         <v>34</v>
@@ -16550,7 +16550,7 @@
     </row>
     <row r="352" spans="1:17">
       <c r="A352" s="1">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B352" t="s">
         <v>34</v>
@@ -16603,7 +16603,7 @@
     </row>
     <row r="353" spans="1:17">
       <c r="A353" s="1">
-        <v>461</v>
+        <v>534</v>
       </c>
       <c r="B353" t="s">
         <v>34</v>
@@ -16656,7 +16656,7 @@
     </row>
     <row r="354" spans="1:17">
       <c r="A354" s="1">
-        <v>212</v>
+        <v>564</v>
       </c>
       <c r="B354" t="s">
         <v>34</v>
@@ -16700,7 +16700,7 @@
     </row>
     <row r="355" spans="1:17">
       <c r="A355" s="1">
-        <v>305</v>
+        <v>593</v>
       </c>
       <c r="B355" t="s">
         <v>34</v>
@@ -16741,7 +16741,7 @@
     </row>
     <row r="356" spans="1:17">
       <c r="A356" s="1">
-        <v>430</v>
+        <v>153</v>
       </c>
       <c r="B356" t="s">
         <v>34</v>
@@ -16785,7 +16785,7 @@
     </row>
     <row r="357" spans="1:17">
       <c r="A357" s="1">
-        <v>117</v>
+        <v>503</v>
       </c>
       <c r="B357" t="s">
         <v>34</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="358" spans="1:17">
       <c r="A358" s="1">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="B358" t="s">
         <v>34</v>
@@ -16867,7 +16867,7 @@
     </row>
     <row r="359" spans="1:17">
       <c r="A359" s="1">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="B359" t="s">
         <v>35</v>
@@ -16908,7 +16908,7 @@
     </row>
     <row r="360" spans="1:17">
       <c r="A360" s="1">
-        <v>574</v>
+        <v>296</v>
       </c>
       <c r="B360" t="s">
         <v>35</v>
@@ -16952,7 +16952,7 @@
     </row>
     <row r="361" spans="1:17">
       <c r="A361" s="1">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B361" t="s">
         <v>35</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="362" spans="1:17">
       <c r="A362" s="1">
-        <v>542</v>
+        <v>327</v>
       </c>
       <c r="B362" t="s">
         <v>35</v>
@@ -17037,7 +17037,7 @@
     </row>
     <row r="363" spans="1:17">
       <c r="A363" s="1">
-        <v>348</v>
+        <v>72</v>
       </c>
       <c r="B363" t="s">
         <v>35</v>
@@ -17084,7 +17084,7 @@
     </row>
     <row r="364" spans="1:17">
       <c r="A364" s="1">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="B364" t="s">
         <v>35</v>
@@ -17131,7 +17131,7 @@
     </row>
     <row r="365" spans="1:17">
       <c r="A365" s="1">
-        <v>474</v>
+        <v>605</v>
       </c>
       <c r="B365" t="s">
         <v>35</v>
@@ -17178,7 +17178,7 @@
     </row>
     <row r="366" spans="1:17">
       <c r="A366" s="1">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="B366" t="s">
         <v>35</v>
@@ -17225,7 +17225,7 @@
     </row>
     <row r="367" spans="1:17">
       <c r="A367" s="1">
-        <v>605</v>
+        <v>359</v>
       </c>
       <c r="B367" t="s">
         <v>35</v>
@@ -17269,7 +17269,7 @@
     </row>
     <row r="368" spans="1:17">
       <c r="A368" s="1">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="B368" t="s">
         <v>35</v>
@@ -17313,7 +17313,7 @@
     </row>
     <row r="369" spans="1:16">
       <c r="A369" s="1">
-        <v>256</v>
+        <v>393</v>
       </c>
       <c r="B369" t="s">
         <v>35</v>
@@ -17360,7 +17360,7 @@
     </row>
     <row r="370" spans="1:16">
       <c r="A370" s="1">
-        <v>381</v>
+        <v>40</v>
       </c>
       <c r="B370" t="s">
         <v>35</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="371" spans="1:16">
       <c r="A371" s="1">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="B371" t="s">
         <v>35</v>
@@ -17454,7 +17454,7 @@
     </row>
     <row r="372" spans="1:16">
       <c r="A372" s="1">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B372" t="s">
         <v>35</v>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="373" spans="1:16">
       <c r="A373" s="1">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="B373" t="s">
         <v>35</v>
@@ -17548,7 +17548,7 @@
     </row>
     <row r="374" spans="1:16">
       <c r="A374" s="1">
-        <v>195</v>
+        <v>547</v>
       </c>
       <c r="B374" t="s">
         <v>35</v>
@@ -17589,7 +17589,7 @@
     </row>
     <row r="375" spans="1:16">
       <c r="A375" s="1">
-        <v>288</v>
+        <v>576</v>
       </c>
       <c r="B375" t="s">
         <v>35</v>
@@ -17630,7 +17630,7 @@
     </row>
     <row r="376" spans="1:16">
       <c r="A376" s="1">
-        <v>413</v>
+        <v>136</v>
       </c>
       <c r="B376" t="s">
         <v>35</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="377" spans="1:16">
       <c r="A377" s="1">
-        <v>100</v>
+        <v>486</v>
       </c>
       <c r="B377" t="s">
         <v>35</v>
@@ -17712,7 +17712,7 @@
     </row>
     <row r="378" spans="1:16">
       <c r="A378" s="1">
-        <v>6</v>
+        <v>425</v>
       </c>
       <c r="B378" t="s">
         <v>35</v>
@@ -17753,7 +17753,7 @@
     </row>
     <row r="379" spans="1:16">
       <c r="A379" s="1">
-        <v>339</v>
+        <v>127</v>
       </c>
       <c r="B379" t="s">
         <v>36</v>
@@ -17791,7 +17791,7 @@
     </row>
     <row r="380" spans="1:16">
       <c r="A380" s="1">
-        <v>596</v>
+        <v>318</v>
       </c>
       <c r="B380" t="s">
         <v>36</v>
@@ -17829,7 +17829,7 @@
     </row>
     <row r="381" spans="1:16">
       <c r="A381" s="1">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="B381" t="s">
         <v>36</v>
@@ -17873,7 +17873,7 @@
     </row>
     <row r="382" spans="1:16">
       <c r="A382" s="1">
-        <v>565</v>
+        <v>350</v>
       </c>
       <c r="B382" t="s">
         <v>36</v>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="383" spans="1:16">
       <c r="A383" s="1">
-        <v>372</v>
+        <v>96</v>
       </c>
       <c r="B383" t="s">
         <v>36</v>
@@ -17967,7 +17967,7 @@
     </row>
     <row r="384" spans="1:16">
       <c r="A384" s="1">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="B384" t="s">
         <v>36</v>
@@ -18011,7 +18011,7 @@
     </row>
     <row r="385" spans="1:17">
       <c r="A385" s="1">
-        <v>499</v>
+        <v>630</v>
       </c>
       <c r="B385" t="s">
         <v>36</v>
@@ -18058,7 +18058,7 @@
     </row>
     <row r="386" spans="1:17">
       <c r="A386" s="1">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="B386" t="s">
         <v>36</v>
@@ -18102,7 +18102,7 @@
     </row>
     <row r="387" spans="1:17">
       <c r="A387" s="1">
-        <v>630</v>
+        <v>384</v>
       </c>
       <c r="B387" t="s">
         <v>36</v>
@@ -18146,7 +18146,7 @@
     </row>
     <row r="388" spans="1:17">
       <c r="A388" s="1">
-        <v>533</v>
+        <v>31</v>
       </c>
       <c r="B388" t="s">
         <v>36</v>
@@ -18190,7 +18190,7 @@
     </row>
     <row r="389" spans="1:17">
       <c r="A389" s="1">
-        <v>327</v>
+        <v>115</v>
       </c>
       <c r="B389" t="s">
         <v>37</v>
@@ -18237,7 +18237,7 @@
     </row>
     <row r="390" spans="1:17">
       <c r="A390" s="1">
-        <v>584</v>
+        <v>306</v>
       </c>
       <c r="B390" t="s">
         <v>37</v>
@@ -18284,7 +18284,7 @@
     </row>
     <row r="391" spans="1:17">
       <c r="A391" s="1">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B391" t="s">
         <v>37</v>
@@ -18325,7 +18325,7 @@
     </row>
     <row r="392" spans="1:17">
       <c r="A392" s="1">
-        <v>552</v>
+        <v>337</v>
       </c>
       <c r="B392" t="s">
         <v>37</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="393" spans="1:17">
       <c r="A393" s="1">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="B393" t="s">
         <v>37</v>
@@ -18425,7 +18425,7 @@
     </row>
     <row r="394" spans="1:17">
       <c r="A394" s="1">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="B394" t="s">
         <v>37</v>
@@ -18478,7 +18478,7 @@
     </row>
     <row r="395" spans="1:17">
       <c r="A395" s="1">
-        <v>484</v>
+        <v>615</v>
       </c>
       <c r="B395" t="s">
         <v>37</v>
@@ -18531,7 +18531,7 @@
     </row>
     <row r="396" spans="1:17">
       <c r="A396" s="1">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="B396" t="s">
         <v>37</v>
@@ -18584,7 +18584,7 @@
     </row>
     <row r="397" spans="1:17">
       <c r="A397" s="1">
-        <v>615</v>
+        <v>369</v>
       </c>
       <c r="B397" t="s">
         <v>37</v>
@@ -18634,7 +18634,7 @@
     </row>
     <row r="398" spans="1:17">
       <c r="A398" s="1">
-        <v>518</v>
+        <v>16</v>
       </c>
       <c r="B398" t="s">
         <v>37</v>
@@ -18684,7 +18684,7 @@
     </row>
     <row r="399" spans="1:17">
       <c r="A399" s="1">
-        <v>266</v>
+        <v>403</v>
       </c>
       <c r="B399" t="s">
         <v>37</v>
@@ -18737,7 +18737,7 @@
     </row>
     <row r="400" spans="1:17">
       <c r="A400" s="1">
-        <v>391</v>
+        <v>50</v>
       </c>
       <c r="B400" t="s">
         <v>37</v>
@@ -18787,7 +18787,7 @@
     </row>
     <row r="401" spans="1:17">
       <c r="A401" s="1">
-        <v>78</v>
+        <v>464</v>
       </c>
       <c r="B401" t="s">
         <v>37</v>
@@ -18840,7 +18840,7 @@
     </row>
     <row r="402" spans="1:17">
       <c r="A402" s="1">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B402" t="s">
         <v>37</v>
@@ -18893,7 +18893,7 @@
     </row>
     <row r="403" spans="1:17">
       <c r="A403" s="1">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="B403" t="s">
         <v>37</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="404" spans="1:17">
       <c r="A404" s="1">
-        <v>204</v>
+        <v>556</v>
       </c>
       <c r="B404" t="s">
         <v>37</v>
@@ -18987,7 +18987,7 @@
     </row>
     <row r="405" spans="1:17">
       <c r="A405" s="1">
-        <v>297</v>
+        <v>585</v>
       </c>
       <c r="B405" t="s">
         <v>37</v>
@@ -19034,7 +19034,7 @@
     </row>
     <row r="406" spans="1:17">
       <c r="A406" s="1">
-        <v>422</v>
+        <v>145</v>
       </c>
       <c r="B406" t="s">
         <v>37</v>
@@ -19081,7 +19081,7 @@
     </row>
     <row r="407" spans="1:17">
       <c r="A407" s="1">
-        <v>109</v>
+        <v>495</v>
       </c>
       <c r="B407" t="s">
         <v>37</v>
@@ -19128,7 +19128,7 @@
     </row>
     <row r="408" spans="1:17">
       <c r="A408" s="1">
-        <v>15</v>
+        <v>434</v>
       </c>
       <c r="B408" t="s">
         <v>37</v>
@@ -19172,7 +19172,7 @@
     </row>
     <row r="409" spans="1:17">
       <c r="A409" s="1">
-        <v>318</v>
+        <v>106</v>
       </c>
       <c r="B409" t="s">
         <v>38</v>
@@ -19213,7 +19213,7 @@
     </row>
     <row r="410" spans="1:17">
       <c r="A410" s="1">
-        <v>575</v>
+        <v>297</v>
       </c>
       <c r="B410" t="s">
         <v>38</v>
@@ -19257,7 +19257,7 @@
     </row>
     <row r="411" spans="1:17">
       <c r="A411" s="1">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B411" t="s">
         <v>38</v>
@@ -19280,7 +19280,7 @@
     </row>
     <row r="412" spans="1:17">
       <c r="A412" s="1">
-        <v>543</v>
+        <v>328</v>
       </c>
       <c r="B412" t="s">
         <v>38</v>
@@ -19327,7 +19327,7 @@
     </row>
     <row r="413" spans="1:17">
       <c r="A413" s="1">
-        <v>349</v>
+        <v>73</v>
       </c>
       <c r="B413" t="s">
         <v>38</v>
@@ -19374,7 +19374,7 @@
     </row>
     <row r="414" spans="1:17">
       <c r="A414" s="1">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="B414" t="s">
         <v>38</v>
@@ -19421,7 +19421,7 @@
     </row>
     <row r="415" spans="1:17">
       <c r="A415" s="1">
-        <v>475</v>
+        <v>606</v>
       </c>
       <c r="B415" t="s">
         <v>38</v>
@@ -19468,7 +19468,7 @@
     </row>
     <row r="416" spans="1:17">
       <c r="A416" s="1">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="B416" t="s">
         <v>38</v>
@@ -19515,7 +19515,7 @@
     </row>
     <row r="417" spans="1:16">
       <c r="A417" s="1">
-        <v>606</v>
+        <v>360</v>
       </c>
       <c r="B417" t="s">
         <v>38</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="418" spans="1:16">
       <c r="A418" s="1">
-        <v>509</v>
+        <v>7</v>
       </c>
       <c r="B418" t="s">
         <v>38</v>
@@ -19603,7 +19603,7 @@
     </row>
     <row r="419" spans="1:16">
       <c r="A419" s="1">
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="B419" t="s">
         <v>38</v>
@@ -19650,7 +19650,7 @@
     </row>
     <row r="420" spans="1:16">
       <c r="A420" s="1">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="B420" t="s">
         <v>38</v>
@@ -19697,7 +19697,7 @@
     </row>
     <row r="421" spans="1:16">
       <c r="A421" s="1">
-        <v>69</v>
+        <v>455</v>
       </c>
       <c r="B421" t="s">
         <v>38</v>
@@ -19744,7 +19744,7 @@
     </row>
     <row r="422" spans="1:16">
       <c r="A422" s="1">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B422" t="s">
         <v>38</v>
@@ -19791,7 +19791,7 @@
     </row>
     <row r="423" spans="1:16">
       <c r="A423" s="1">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="B423" t="s">
         <v>38</v>
@@ -19838,7 +19838,7 @@
     </row>
     <row r="424" spans="1:16">
       <c r="A424" s="1">
-        <v>196</v>
+        <v>548</v>
       </c>
       <c r="B424" t="s">
         <v>38</v>
@@ -19879,7 +19879,7 @@
     </row>
     <row r="425" spans="1:16">
       <c r="A425" s="1">
-        <v>289</v>
+        <v>577</v>
       </c>
       <c r="B425" t="s">
         <v>38</v>
@@ -19920,7 +19920,7 @@
     </row>
     <row r="426" spans="1:16">
       <c r="A426" s="1">
-        <v>414</v>
+        <v>137</v>
       </c>
       <c r="B426" t="s">
         <v>38</v>
@@ -19961,7 +19961,7 @@
     </row>
     <row r="427" spans="1:16">
       <c r="A427" s="1">
-        <v>101</v>
+        <v>487</v>
       </c>
       <c r="B427" t="s">
         <v>38</v>
@@ -20002,7 +20002,7 @@
     </row>
     <row r="428" spans="1:16">
       <c r="A428" s="1">
-        <v>7</v>
+        <v>426</v>
       </c>
       <c r="B428" t="s">
         <v>38</v>
@@ -20046,7 +20046,7 @@
     </row>
     <row r="429" spans="1:16">
       <c r="A429" s="1">
-        <v>319</v>
+        <v>107</v>
       </c>
       <c r="B429" t="s">
         <v>39</v>
@@ -20087,7 +20087,7 @@
     </row>
     <row r="430" spans="1:16">
       <c r="A430" s="1">
-        <v>576</v>
+        <v>298</v>
       </c>
       <c r="B430" t="s">
         <v>39</v>
@@ -20131,7 +20131,7 @@
     </row>
     <row r="431" spans="1:16">
       <c r="A431" s="1">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="B431" t="s">
         <v>39</v>
@@ -20169,7 +20169,7 @@
     </row>
     <row r="432" spans="1:16">
       <c r="A432" s="1">
-        <v>544</v>
+        <v>329</v>
       </c>
       <c r="B432" t="s">
         <v>39</v>
@@ -20216,7 +20216,7 @@
     </row>
     <row r="433" spans="1:16">
       <c r="A433" s="1">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="B433" t="s">
         <v>39</v>
@@ -20263,7 +20263,7 @@
     </row>
     <row r="434" spans="1:16">
       <c r="A434" s="1">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="B434" t="s">
         <v>39</v>
@@ -20310,7 +20310,7 @@
     </row>
     <row r="435" spans="1:16">
       <c r="A435" s="1">
-        <v>476</v>
+        <v>607</v>
       </c>
       <c r="B435" t="s">
         <v>39</v>
@@ -20357,7 +20357,7 @@
     </row>
     <row r="436" spans="1:16">
       <c r="A436" s="1">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="B436" t="s">
         <v>39</v>
@@ -20404,7 +20404,7 @@
     </row>
     <row r="437" spans="1:16">
       <c r="A437" s="1">
-        <v>607</v>
+        <v>361</v>
       </c>
       <c r="B437" t="s">
         <v>39</v>
@@ -20448,7 +20448,7 @@
     </row>
     <row r="438" spans="1:16">
       <c r="A438" s="1">
-        <v>510</v>
+        <v>8</v>
       </c>
       <c r="B438" t="s">
         <v>39</v>
@@ -20492,7 +20492,7 @@
     </row>
     <row r="439" spans="1:16">
       <c r="A439" s="1">
-        <v>258</v>
+        <v>395</v>
       </c>
       <c r="B439" t="s">
         <v>39</v>
@@ -20539,7 +20539,7 @@
     </row>
     <row r="440" spans="1:16">
       <c r="A440" s="1">
-        <v>383</v>
+        <v>42</v>
       </c>
       <c r="B440" t="s">
         <v>39</v>
@@ -20586,7 +20586,7 @@
     </row>
     <row r="441" spans="1:16">
       <c r="A441" s="1">
-        <v>70</v>
+        <v>456</v>
       </c>
       <c r="B441" t="s">
         <v>39</v>
@@ -20633,7 +20633,7 @@
     </row>
     <row r="442" spans="1:16">
       <c r="A442" s="1">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B442" t="s">
         <v>39</v>
@@ -20680,7 +20680,7 @@
     </row>
     <row r="443" spans="1:16">
       <c r="A443" s="1">
-        <v>444</v>
+        <v>517</v>
       </c>
       <c r="B443" t="s">
         <v>39</v>
@@ -20727,7 +20727,7 @@
     </row>
     <row r="444" spans="1:16">
       <c r="A444" s="1">
-        <v>197</v>
+        <v>549</v>
       </c>
       <c r="B444" t="s">
         <v>39</v>
@@ -20768,7 +20768,7 @@
     </row>
     <row r="445" spans="1:16">
       <c r="A445" s="1">
-        <v>290</v>
+        <v>578</v>
       </c>
       <c r="B445" t="s">
         <v>39</v>
@@ -20809,7 +20809,7 @@
     </row>
     <row r="446" spans="1:16">
       <c r="A446" s="1">
-        <v>415</v>
+        <v>138</v>
       </c>
       <c r="B446" t="s">
         <v>39</v>
@@ -20850,7 +20850,7 @@
     </row>
     <row r="447" spans="1:16">
       <c r="A447" s="1">
-        <v>102</v>
+        <v>488</v>
       </c>
       <c r="B447" t="s">
         <v>39</v>
@@ -20888,7 +20888,7 @@
     </row>
     <row r="448" spans="1:16">
       <c r="A448" s="1">
-        <v>8</v>
+        <v>427</v>
       </c>
       <c r="B448" t="s">
         <v>39</v>
@@ -20929,7 +20929,7 @@
     </row>
     <row r="449" spans="1:16">
       <c r="A449" s="1">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="B449" t="s">
         <v>40</v>
@@ -20970,7 +20970,7 @@
     </row>
     <row r="450" spans="1:16">
       <c r="A450" s="1">
-        <v>577</v>
+        <v>299</v>
       </c>
       <c r="B450" t="s">
         <v>40</v>
@@ -21014,7 +21014,7 @@
     </row>
     <row r="451" spans="1:16">
       <c r="A451" s="1">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B451" t="s">
         <v>40</v>
@@ -21052,7 +21052,7 @@
     </row>
     <row r="452" spans="1:16">
       <c r="A452" s="1">
-        <v>545</v>
+        <v>330</v>
       </c>
       <c r="B452" t="s">
         <v>40</v>
@@ -21099,7 +21099,7 @@
     </row>
     <row r="453" spans="1:16">
       <c r="A453" s="1">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c r="B453" t="s">
         <v>40</v>
@@ -21146,7 +21146,7 @@
     </row>
     <row r="454" spans="1:16">
       <c r="A454" s="1">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="B454" t="s">
         <v>40</v>
@@ -21187,7 +21187,7 @@
     </row>
     <row r="455" spans="1:16">
       <c r="A455" s="1">
-        <v>477</v>
+        <v>608</v>
       </c>
       <c r="B455" t="s">
         <v>40</v>
@@ -21234,7 +21234,7 @@
     </row>
     <row r="456" spans="1:16">
       <c r="A456" s="1">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="B456" t="s">
         <v>40</v>
@@ -21281,7 +21281,7 @@
     </row>
     <row r="457" spans="1:16">
       <c r="A457" s="1">
-        <v>608</v>
+        <v>362</v>
       </c>
       <c r="B457" t="s">
         <v>40</v>
@@ -21325,7 +21325,7 @@
     </row>
     <row r="458" spans="1:16">
       <c r="A458" s="1">
-        <v>511</v>
+        <v>9</v>
       </c>
       <c r="B458" t="s">
         <v>40</v>
@@ -21369,7 +21369,7 @@
     </row>
     <row r="459" spans="1:16">
       <c r="A459" s="1">
-        <v>259</v>
+        <v>396</v>
       </c>
       <c r="B459" t="s">
         <v>40</v>
@@ -21416,7 +21416,7 @@
     </row>
     <row r="460" spans="1:16">
       <c r="A460" s="1">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="B460" t="s">
         <v>40</v>
@@ -21463,7 +21463,7 @@
     </row>
     <row r="461" spans="1:16">
       <c r="A461" s="1">
-        <v>71</v>
+        <v>457</v>
       </c>
       <c r="B461" t="s">
         <v>40</v>
@@ -21510,7 +21510,7 @@
     </row>
     <row r="462" spans="1:16">
       <c r="A462" s="1">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B462" t="s">
         <v>40</v>
@@ -21557,7 +21557,7 @@
     </row>
     <row r="463" spans="1:16">
       <c r="A463" s="1">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="B463" t="s">
         <v>40</v>
@@ -21604,7 +21604,7 @@
     </row>
     <row r="464" spans="1:16">
       <c r="A464" s="1">
-        <v>198</v>
+        <v>550</v>
       </c>
       <c r="B464" t="s">
         <v>40</v>
@@ -21645,7 +21645,7 @@
     </row>
     <row r="465" spans="1:16">
       <c r="A465" s="1">
-        <v>291</v>
+        <v>579</v>
       </c>
       <c r="B465" t="s">
         <v>40</v>
@@ -21686,7 +21686,7 @@
     </row>
     <row r="466" spans="1:16">
       <c r="A466" s="1">
-        <v>416</v>
+        <v>139</v>
       </c>
       <c r="B466" t="s">
         <v>40</v>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="467" spans="1:16">
       <c r="A467" s="1">
-        <v>103</v>
+        <v>489</v>
       </c>
       <c r="B467" t="s">
         <v>40</v>
@@ -21768,7 +21768,7 @@
     </row>
     <row r="468" spans="1:16">
       <c r="A468" s="1">
-        <v>9</v>
+        <v>428</v>
       </c>
       <c r="B468" t="s">
         <v>40</v>
@@ -21809,7 +21809,7 @@
     </row>
     <row r="469" spans="1:16">
       <c r="A469" s="1">
-        <v>340</v>
+        <v>128</v>
       </c>
       <c r="B469" t="s">
         <v>41</v>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="470" spans="1:16">
       <c r="A470" s="1">
-        <v>597</v>
+        <v>319</v>
       </c>
       <c r="B470" t="s">
         <v>41</v>
@@ -21873,7 +21873,7 @@
     </row>
     <row r="471" spans="1:16">
       <c r="A471" s="1">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B471" t="s">
         <v>41</v>
@@ -21902,7 +21902,7 @@
     </row>
     <row r="472" spans="1:16">
       <c r="A472" s="1">
-        <v>566</v>
+        <v>351</v>
       </c>
       <c r="B472" t="s">
         <v>41</v>
@@ -21937,7 +21937,7 @@
     </row>
     <row r="473" spans="1:16">
       <c r="A473" s="1">
-        <v>373</v>
+        <v>97</v>
       </c>
       <c r="B473" t="s">
         <v>41</v>
@@ -21972,7 +21972,7 @@
     </row>
     <row r="474" spans="1:16">
       <c r="A474" s="1">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="B474" t="s">
         <v>41</v>
@@ -22013,7 +22013,7 @@
     </row>
     <row r="475" spans="1:16">
       <c r="A475" s="1">
-        <v>500</v>
+        <v>631</v>
       </c>
       <c r="B475" t="s">
         <v>41</v>
@@ -22054,7 +22054,7 @@
     </row>
     <row r="476" spans="1:16">
       <c r="A476" s="1">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="B476" t="s">
         <v>41</v>
@@ -22086,7 +22086,7 @@
     </row>
     <row r="477" spans="1:16">
       <c r="A477" s="1">
-        <v>631</v>
+        <v>385</v>
       </c>
       <c r="B477" t="s">
         <v>41</v>
@@ -22121,7 +22121,7 @@
     </row>
     <row r="478" spans="1:16">
       <c r="A478" s="1">
-        <v>534</v>
+        <v>32</v>
       </c>
       <c r="B478" t="s">
         <v>41</v>
@@ -22156,7 +22156,7 @@
     </row>
     <row r="479" spans="1:16">
       <c r="A479" s="1">
-        <v>280</v>
+        <v>417</v>
       </c>
       <c r="B479" t="s">
         <v>41</v>
@@ -22191,7 +22191,7 @@
     </row>
     <row r="480" spans="1:16">
       <c r="A480" s="1">
-        <v>405</v>
+        <v>64</v>
       </c>
       <c r="B480" t="s">
         <v>41</v>
@@ -22223,7 +22223,7 @@
     </row>
     <row r="481" spans="1:17">
       <c r="A481" s="1">
-        <v>92</v>
+        <v>478</v>
       </c>
       <c r="B481" t="s">
         <v>41</v>
@@ -22249,7 +22249,7 @@
     </row>
     <row r="482" spans="1:17">
       <c r="A482" s="1">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B482" t="s">
         <v>41</v>
@@ -22284,7 +22284,7 @@
     </row>
     <row r="483" spans="1:17">
       <c r="A483" s="1">
-        <v>466</v>
+        <v>539</v>
       </c>
       <c r="B483" t="s">
         <v>41</v>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="484" spans="1:17">
       <c r="A484" s="1">
-        <v>331</v>
+        <v>119</v>
       </c>
       <c r="B484" t="s">
         <v>42</v>
@@ -22360,7 +22360,7 @@
     </row>
     <row r="485" spans="1:17">
       <c r="A485" s="1">
-        <v>588</v>
+        <v>310</v>
       </c>
       <c r="B485" t="s">
         <v>42</v>
@@ -22404,7 +22404,7 @@
     </row>
     <row r="486" spans="1:17">
       <c r="A486" s="1">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="B486" t="s">
         <v>42</v>
@@ -22445,7 +22445,7 @@
     </row>
     <row r="487" spans="1:17">
       <c r="A487" s="1">
-        <v>556</v>
+        <v>341</v>
       </c>
       <c r="B487" t="s">
         <v>42</v>
@@ -22495,7 +22495,7 @@
     </row>
     <row r="488" spans="1:17">
       <c r="A488" s="1">
-        <v>362</v>
+        <v>86</v>
       </c>
       <c r="B488" t="s">
         <v>42</v>
@@ -22545,7 +22545,7 @@
     </row>
     <row r="489" spans="1:17">
       <c r="A489" s="1">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="B489" t="s">
         <v>42</v>
@@ -22598,7 +22598,7 @@
     </row>
     <row r="490" spans="1:17">
       <c r="A490" s="1">
-        <v>489</v>
+        <v>620</v>
       </c>
       <c r="B490" t="s">
         <v>42</v>
@@ -22648,7 +22648,7 @@
     </row>
     <row r="491" spans="1:17">
       <c r="A491" s="1">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="B491" t="s">
         <v>42</v>
@@ -22701,7 +22701,7 @@
     </row>
     <row r="492" spans="1:17">
       <c r="A492" s="1">
-        <v>620</v>
+        <v>374</v>
       </c>
       <c r="B492" t="s">
         <v>42</v>
@@ -22751,7 +22751,7 @@
     </row>
     <row r="493" spans="1:17">
       <c r="A493" s="1">
-        <v>523</v>
+        <v>21</v>
       </c>
       <c r="B493" t="s">
         <v>42</v>
@@ -22798,7 +22798,7 @@
     </row>
     <row r="494" spans="1:17">
       <c r="A494" s="1">
-        <v>270</v>
+        <v>407</v>
       </c>
       <c r="B494" t="s">
         <v>42</v>
@@ -22839,7 +22839,7 @@
     </row>
     <row r="495" spans="1:17">
       <c r="A495" s="1">
-        <v>395</v>
+        <v>54</v>
       </c>
       <c r="B495" t="s">
         <v>42</v>
@@ -22880,7 +22880,7 @@
     </row>
     <row r="496" spans="1:17">
       <c r="A496" s="1">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="B496" t="s">
         <v>42</v>
@@ -22921,7 +22921,7 @@
     </row>
     <row r="497" spans="1:17">
       <c r="A497" s="1">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B497" t="s">
         <v>42</v>
@@ -22962,7 +22962,7 @@
     </row>
     <row r="498" spans="1:17">
       <c r="A498" s="1">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="B498" t="s">
         <v>42</v>
@@ -23003,7 +23003,7 @@
     </row>
     <row r="499" spans="1:17">
       <c r="A499" s="1">
-        <v>325</v>
+        <v>113</v>
       </c>
       <c r="B499" t="s">
         <v>43</v>
@@ -23047,7 +23047,7 @@
     </row>
     <row r="500" spans="1:17">
       <c r="A500" s="1">
-        <v>582</v>
+        <v>304</v>
       </c>
       <c r="B500" t="s">
         <v>43</v>
@@ -23094,7 +23094,7 @@
     </row>
     <row r="501" spans="1:17">
       <c r="A501" s="1">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="B501" t="s">
         <v>43</v>
@@ -23138,7 +23138,7 @@
     </row>
     <row r="502" spans="1:17">
       <c r="A502" s="1">
-        <v>550</v>
+        <v>335</v>
       </c>
       <c r="B502" t="s">
         <v>43</v>
@@ -23188,7 +23188,7 @@
     </row>
     <row r="503" spans="1:17">
       <c r="A503" s="1">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="B503" t="s">
         <v>43</v>
@@ -23238,7 +23238,7 @@
     </row>
     <row r="504" spans="1:17">
       <c r="A504" s="1">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="B504" t="s">
         <v>43</v>
@@ -23288,7 +23288,7 @@
     </row>
     <row r="505" spans="1:17">
       <c r="A505" s="1">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="B505" t="s">
         <v>43</v>
@@ -23338,7 +23338,7 @@
     </row>
     <row r="506" spans="1:17">
       <c r="A506" s="1">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="B506" t="s">
         <v>43</v>
@@ -23388,7 +23388,7 @@
     </row>
     <row r="507" spans="1:17">
       <c r="A507" s="1">
-        <v>613</v>
+        <v>367</v>
       </c>
       <c r="B507" t="s">
         <v>43</v>
@@ -23438,7 +23438,7 @@
     </row>
     <row r="508" spans="1:17">
       <c r="A508" s="1">
-        <v>516</v>
+        <v>14</v>
       </c>
       <c r="B508" t="s">
         <v>43</v>
@@ -23488,7 +23488,7 @@
     </row>
     <row r="509" spans="1:17">
       <c r="A509" s="1">
-        <v>264</v>
+        <v>401</v>
       </c>
       <c r="B509" t="s">
         <v>43</v>
@@ -23541,7 +23541,7 @@
     </row>
     <row r="510" spans="1:17">
       <c r="A510" s="1">
-        <v>389</v>
+        <v>48</v>
       </c>
       <c r="B510" t="s">
         <v>43</v>
@@ -23591,7 +23591,7 @@
     </row>
     <row r="511" spans="1:17">
       <c r="A511" s="1">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="B511" t="s">
         <v>43</v>
@@ -23641,7 +23641,7 @@
     </row>
     <row r="512" spans="1:17">
       <c r="A512" s="1">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B512" t="s">
         <v>43</v>
@@ -23691,7 +23691,7 @@
     </row>
     <row r="513" spans="1:17">
       <c r="A513" s="1">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="B513" t="s">
         <v>43</v>
@@ -23741,7 +23741,7 @@
     </row>
     <row r="514" spans="1:17">
       <c r="A514" s="1">
-        <v>202</v>
+        <v>554</v>
       </c>
       <c r="B514" t="s">
         <v>43</v>
@@ -23785,7 +23785,7 @@
     </row>
     <row r="515" spans="1:17">
       <c r="A515" s="1">
-        <v>295</v>
+        <v>583</v>
       </c>
       <c r="B515" t="s">
         <v>43</v>
@@ -23832,7 +23832,7 @@
     </row>
     <row r="516" spans="1:17">
       <c r="A516" s="1">
-        <v>420</v>
+        <v>143</v>
       </c>
       <c r="B516" t="s">
         <v>43</v>
@@ -23876,7 +23876,7 @@
     </row>
     <row r="517" spans="1:17">
       <c r="A517" s="1">
-        <v>107</v>
+        <v>493</v>
       </c>
       <c r="B517" t="s">
         <v>43</v>
@@ -23917,7 +23917,7 @@
     </row>
     <row r="518" spans="1:17">
       <c r="A518" s="1">
-        <v>13</v>
+        <v>432</v>
       </c>
       <c r="B518" t="s">
         <v>43</v>
@@ -23964,7 +23964,7 @@
     </row>
     <row r="519" spans="1:17">
       <c r="A519" s="1">
-        <v>336</v>
+        <v>124</v>
       </c>
       <c r="B519" t="s">
         <v>44</v>
@@ -24008,7 +24008,7 @@
     </row>
     <row r="520" spans="1:17">
       <c r="A520" s="1">
-        <v>593</v>
+        <v>315</v>
       </c>
       <c r="B520" t="s">
         <v>44</v>
@@ -24055,7 +24055,7 @@
     </row>
     <row r="521" spans="1:17">
       <c r="A521" s="1">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="B521" t="s">
         <v>44</v>
@@ -24096,7 +24096,7 @@
     </row>
     <row r="522" spans="1:17">
       <c r="A522" s="1">
-        <v>562</v>
+        <v>347</v>
       </c>
       <c r="B522" t="s">
         <v>44</v>
@@ -24146,7 +24146,7 @@
     </row>
     <row r="523" spans="1:17">
       <c r="A523" s="1">
-        <v>368</v>
+        <v>92</v>
       </c>
       <c r="B523" t="s">
         <v>44</v>
@@ -24196,7 +24196,7 @@
     </row>
     <row r="524" spans="1:17">
       <c r="A524" s="1">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="B524" t="s">
         <v>44</v>
@@ -24246,7 +24246,7 @@
     </row>
     <row r="525" spans="1:17">
       <c r="A525" s="1">
-        <v>495</v>
+        <v>626</v>
       </c>
       <c r="B525" t="s">
         <v>44</v>
@@ -24293,7 +24293,7 @@
     </row>
     <row r="526" spans="1:17">
       <c r="A526" s="1">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="B526" t="s">
         <v>44</v>
@@ -24340,7 +24340,7 @@
     </row>
     <row r="527" spans="1:17">
       <c r="A527" s="1">
-        <v>626</v>
+        <v>380</v>
       </c>
       <c r="B527" t="s">
         <v>44</v>
@@ -24387,7 +24387,7 @@
     </row>
     <row r="528" spans="1:17">
       <c r="A528" s="1">
-        <v>529</v>
+        <v>27</v>
       </c>
       <c r="B528" t="s">
         <v>44</v>
@@ -24434,7 +24434,7 @@
     </row>
     <row r="529" spans="1:17">
       <c r="A529" s="1">
-        <v>276</v>
+        <v>413</v>
       </c>
       <c r="B529" t="s">
         <v>44</v>
@@ -24484,7 +24484,7 @@
     </row>
     <row r="530" spans="1:17">
       <c r="A530" s="1">
-        <v>401</v>
+        <v>60</v>
       </c>
       <c r="B530" t="s">
         <v>44</v>
@@ -24534,7 +24534,7 @@
     </row>
     <row r="531" spans="1:17">
       <c r="A531" s="1">
-        <v>88</v>
+        <v>474</v>
       </c>
       <c r="B531" t="s">
         <v>44</v>
@@ -24584,7 +24584,7 @@
     </row>
     <row r="532" spans="1:17">
       <c r="A532" s="1">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B532" t="s">
         <v>44</v>
@@ -24637,7 +24637,7 @@
     </row>
     <row r="533" spans="1:17">
       <c r="A533" s="1">
-        <v>462</v>
+        <v>535</v>
       </c>
       <c r="B533" t="s">
         <v>44</v>
@@ -24687,7 +24687,7 @@
     </row>
     <row r="534" spans="1:17">
       <c r="A534" s="1">
-        <v>213</v>
+        <v>565</v>
       </c>
       <c r="B534" t="s">
         <v>44</v>
@@ -24734,7 +24734,7 @@
     </row>
     <row r="535" spans="1:17">
       <c r="A535" s="1">
-        <v>306</v>
+        <v>594</v>
       </c>
       <c r="B535" t="s">
         <v>44</v>
@@ -24778,7 +24778,7 @@
     </row>
     <row r="536" spans="1:17">
       <c r="A536" s="1">
-        <v>431</v>
+        <v>154</v>
       </c>
       <c r="B536" t="s">
         <v>44</v>
@@ -24822,7 +24822,7 @@
     </row>
     <row r="537" spans="1:17">
       <c r="A537" s="1">
-        <v>118</v>
+        <v>504</v>
       </c>
       <c r="B537" t="s">
         <v>44</v>
@@ -24863,7 +24863,7 @@
     </row>
     <row r="538" spans="1:17">
       <c r="A538" s="1">
-        <v>24</v>
+        <v>443</v>
       </c>
       <c r="B538" t="s">
         <v>44</v>
@@ -24910,7 +24910,7 @@
     </row>
     <row r="539" spans="1:17">
       <c r="A539" s="1">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="B539" t="s">
         <v>45</v>
@@ -24951,7 +24951,7 @@
     </row>
     <row r="540" spans="1:17">
       <c r="A540" s="1">
-        <v>590</v>
+        <v>312</v>
       </c>
       <c r="B540" t="s">
         <v>45</v>
@@ -24995,7 +24995,7 @@
     </row>
     <row r="541" spans="1:17">
       <c r="A541" s="1">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="B541" t="s">
         <v>45</v>
@@ -25033,7 +25033,7 @@
     </row>
     <row r="542" spans="1:17">
       <c r="A542" s="1">
-        <v>558</v>
+        <v>343</v>
       </c>
       <c r="B542" t="s">
         <v>45</v>
@@ -25083,7 +25083,7 @@
     </row>
     <row r="543" spans="1:17">
       <c r="A543" s="1">
-        <v>364</v>
+        <v>88</v>
       </c>
       <c r="B543" t="s">
         <v>45</v>
@@ -25130,7 +25130,7 @@
     </row>
     <row r="544" spans="1:17">
       <c r="A544" s="1">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="B544" t="s">
         <v>45</v>
@@ -25177,7 +25177,7 @@
     </row>
     <row r="545" spans="1:17">
       <c r="A545" s="1">
-        <v>491</v>
+        <v>622</v>
       </c>
       <c r="B545" t="s">
         <v>45</v>
@@ -25224,7 +25224,7 @@
     </row>
     <row r="546" spans="1:17">
       <c r="A546" s="1">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="B546" t="s">
         <v>45</v>
@@ -25271,7 +25271,7 @@
     </row>
     <row r="547" spans="1:17">
       <c r="A547" s="1">
-        <v>622</v>
+        <v>376</v>
       </c>
       <c r="B547" t="s">
         <v>45</v>
@@ -25315,7 +25315,7 @@
     </row>
     <row r="548" spans="1:17">
       <c r="A548" s="1">
-        <v>525</v>
+        <v>23</v>
       </c>
       <c r="B548" t="s">
         <v>45</v>
@@ -25359,7 +25359,7 @@
     </row>
     <row r="549" spans="1:17">
       <c r="A549" s="1">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="B549" t="s">
         <v>45</v>
@@ -25409,7 +25409,7 @@
     </row>
     <row r="550" spans="1:17">
       <c r="A550" s="1">
-        <v>397</v>
+        <v>56</v>
       </c>
       <c r="B550" t="s">
         <v>45</v>
@@ -25456,7 +25456,7 @@
     </row>
     <row r="551" spans="1:17">
       <c r="A551" s="1">
-        <v>84</v>
+        <v>470</v>
       </c>
       <c r="B551" t="s">
         <v>45</v>
@@ -25503,7 +25503,7 @@
     </row>
     <row r="552" spans="1:17">
       <c r="A552" s="1">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B552" t="s">
         <v>45</v>
@@ -25550,7 +25550,7 @@
     </row>
     <row r="553" spans="1:17">
       <c r="A553" s="1">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="B553" t="s">
         <v>45</v>
@@ -25597,7 +25597,7 @@
     </row>
     <row r="554" spans="1:17">
       <c r="A554" s="1">
-        <v>209</v>
+        <v>561</v>
       </c>
       <c r="B554" t="s">
         <v>45</v>
@@ -25638,7 +25638,7 @@
     </row>
     <row r="555" spans="1:17">
       <c r="A555" s="1">
-        <v>302</v>
+        <v>590</v>
       </c>
       <c r="B555" t="s">
         <v>45</v>
@@ -25679,7 +25679,7 @@
     </row>
     <row r="556" spans="1:17">
       <c r="A556" s="1">
-        <v>427</v>
+        <v>150</v>
       </c>
       <c r="B556" t="s">
         <v>45</v>
@@ -25720,7 +25720,7 @@
     </row>
     <row r="557" spans="1:17">
       <c r="A557" s="1">
-        <v>114</v>
+        <v>500</v>
       </c>
       <c r="B557" t="s">
         <v>45</v>
@@ -25761,7 +25761,7 @@
     </row>
     <row r="558" spans="1:17">
       <c r="A558" s="1">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="B558" t="s">
         <v>45</v>
@@ -25802,7 +25802,7 @@
     </row>
     <row r="559" spans="1:17">
       <c r="A559" s="1">
-        <v>321</v>
+        <v>109</v>
       </c>
       <c r="B559" t="s">
         <v>46</v>
@@ -25843,7 +25843,7 @@
     </row>
     <row r="560" spans="1:17">
       <c r="A560" s="1">
-        <v>578</v>
+        <v>300</v>
       </c>
       <c r="B560" t="s">
         <v>46</v>
@@ -25890,7 +25890,7 @@
     </row>
     <row r="561" spans="1:16">
       <c r="A561" s="1">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="B561" t="s">
         <v>46</v>
@@ -25928,7 +25928,7 @@
     </row>
     <row r="562" spans="1:16">
       <c r="A562" s="1">
-        <v>546</v>
+        <v>331</v>
       </c>
       <c r="B562" t="s">
         <v>46</v>
@@ -25975,7 +25975,7 @@
     </row>
     <row r="563" spans="1:16">
       <c r="A563" s="1">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="B563" t="s">
         <v>46</v>
@@ -26022,7 +26022,7 @@
     </row>
     <row r="564" spans="1:16">
       <c r="A564" s="1">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="B564" t="s">
         <v>46</v>
@@ -26069,7 +26069,7 @@
     </row>
     <row r="565" spans="1:16">
       <c r="A565" s="1">
-        <v>478</v>
+        <v>609</v>
       </c>
       <c r="B565" t="s">
         <v>46</v>
@@ -26116,7 +26116,7 @@
     </row>
     <row r="566" spans="1:16">
       <c r="A566" s="1">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="B566" t="s">
         <v>46</v>
@@ -26163,7 +26163,7 @@
     </row>
     <row r="567" spans="1:16">
       <c r="A567" s="1">
-        <v>609</v>
+        <v>363</v>
       </c>
       <c r="B567" t="s">
         <v>46</v>
@@ -26207,7 +26207,7 @@
     </row>
     <row r="568" spans="1:16">
       <c r="A568" s="1">
-        <v>512</v>
+        <v>10</v>
       </c>
       <c r="B568" t="s">
         <v>46</v>
@@ -26251,7 +26251,7 @@
     </row>
     <row r="569" spans="1:16">
       <c r="A569" s="1">
-        <v>260</v>
+        <v>397</v>
       </c>
       <c r="B569" t="s">
         <v>46</v>
@@ -26298,7 +26298,7 @@
     </row>
     <row r="570" spans="1:16">
       <c r="A570" s="1">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="B570" t="s">
         <v>46</v>
@@ -26345,7 +26345,7 @@
     </row>
     <row r="571" spans="1:16">
       <c r="A571" s="1">
-        <v>72</v>
+        <v>458</v>
       </c>
       <c r="B571" t="s">
         <v>46</v>
@@ -26392,7 +26392,7 @@
     </row>
     <row r="572" spans="1:16">
       <c r="A572" s="1">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B572" t="s">
         <v>46</v>
@@ -26439,7 +26439,7 @@
     </row>
     <row r="573" spans="1:16">
       <c r="A573" s="1">
-        <v>446</v>
+        <v>519</v>
       </c>
       <c r="B573" t="s">
         <v>46</v>
@@ -26486,7 +26486,7 @@
     </row>
     <row r="574" spans="1:16">
       <c r="A574" s="1">
-        <v>199</v>
+        <v>551</v>
       </c>
       <c r="B574" t="s">
         <v>46</v>
@@ -26527,7 +26527,7 @@
     </row>
     <row r="575" spans="1:16">
       <c r="A575" s="1">
-        <v>292</v>
+        <v>580</v>
       </c>
       <c r="B575" t="s">
         <v>46</v>
@@ -26568,7 +26568,7 @@
     </row>
     <row r="576" spans="1:16">
       <c r="A576" s="1">
-        <v>417</v>
+        <v>140</v>
       </c>
       <c r="B576" t="s">
         <v>46</v>
@@ -26582,7 +26582,7 @@
     </row>
     <row r="577" spans="1:17">
       <c r="A577" s="1">
-        <v>104</v>
+        <v>490</v>
       </c>
       <c r="B577" t="s">
         <v>46</v>
@@ -26623,7 +26623,7 @@
     </row>
     <row r="578" spans="1:17">
       <c r="A578" s="1">
-        <v>10</v>
+        <v>429</v>
       </c>
       <c r="B578" t="s">
         <v>46</v>
@@ -26655,7 +26655,7 @@
     </row>
     <row r="579" spans="1:17">
       <c r="A579" s="1">
-        <v>369</v>
+        <v>93</v>
       </c>
       <c r="B579" t="s">
         <v>47</v>
@@ -26705,7 +26705,7 @@
     </row>
     <row r="580" spans="1:17">
       <c r="A580" s="1">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="B580" t="s">
         <v>47</v>
@@ -26758,7 +26758,7 @@
     </row>
     <row r="581" spans="1:17">
       <c r="A581" s="1">
-        <v>496</v>
+        <v>627</v>
       </c>
       <c r="B581" t="s">
         <v>47</v>
@@ -26811,7 +26811,7 @@
     </row>
     <row r="582" spans="1:17">
       <c r="A582" s="1">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="B582" t="s">
         <v>47</v>
@@ -26864,7 +26864,7 @@
     </row>
     <row r="583" spans="1:17">
       <c r="A583" s="1">
-        <v>627</v>
+        <v>381</v>
       </c>
       <c r="B583" t="s">
         <v>47</v>
@@ -26914,7 +26914,7 @@
     </row>
     <row r="584" spans="1:17">
       <c r="A584" s="1">
-        <v>530</v>
+        <v>28</v>
       </c>
       <c r="B584" t="s">
         <v>47</v>
@@ -26964,7 +26964,7 @@
     </row>
     <row r="585" spans="1:17">
       <c r="A585" s="1">
-        <v>277</v>
+        <v>414</v>
       </c>
       <c r="B585" t="s">
         <v>47</v>
@@ -27017,7 +27017,7 @@
     </row>
     <row r="586" spans="1:17">
       <c r="A586" s="1">
-        <v>402</v>
+        <v>61</v>
       </c>
       <c r="B586" t="s">
         <v>47</v>
@@ -27067,7 +27067,7 @@
     </row>
     <row r="587" spans="1:17">
       <c r="A587" s="1">
-        <v>89</v>
+        <v>475</v>
       </c>
       <c r="B587" t="s">
         <v>47</v>
@@ -27117,7 +27117,7 @@
     </row>
     <row r="588" spans="1:17">
       <c r="A588" s="1">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B588" t="s">
         <v>47</v>
@@ -27170,7 +27170,7 @@
     </row>
     <row r="589" spans="1:17">
       <c r="A589" s="1">
-        <v>463</v>
+        <v>536</v>
       </c>
       <c r="B589" t="s">
         <v>47</v>
@@ -27220,7 +27220,7 @@
     </row>
     <row r="590" spans="1:17">
       <c r="A590" s="1">
-        <v>214</v>
+        <v>566</v>
       </c>
       <c r="B590" t="s">
         <v>47</v>
@@ -27267,7 +27267,7 @@
     </row>
     <row r="591" spans="1:17">
       <c r="A591" s="1">
-        <v>307</v>
+        <v>595</v>
       </c>
       <c r="B591" t="s">
         <v>47</v>
@@ -27311,7 +27311,7 @@
     </row>
     <row r="592" spans="1:17">
       <c r="A592" s="1">
-        <v>432</v>
+        <v>155</v>
       </c>
       <c r="B592" t="s">
         <v>47</v>
@@ -27355,7 +27355,7 @@
     </row>
     <row r="593" spans="1:17">
       <c r="A593" s="1">
-        <v>119</v>
+        <v>505</v>
       </c>
       <c r="B593" t="s">
         <v>47</v>
@@ -27387,7 +27387,7 @@
     </row>
     <row r="594" spans="1:17">
       <c r="A594" s="1">
-        <v>25</v>
+        <v>444</v>
       </c>
       <c r="B594" t="s">
         <v>47</v>
@@ -27428,7 +27428,7 @@
     </row>
     <row r="595" spans="1:17">
       <c r="A595" s="1">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="B595" t="s">
         <v>48</v>
@@ -27472,7 +27472,7 @@
     </row>
     <row r="596" spans="1:17">
       <c r="A596" s="1">
-        <v>598</v>
+        <v>320</v>
       </c>
       <c r="B596" t="s">
         <v>48</v>
@@ -27519,7 +27519,7 @@
     </row>
     <row r="597" spans="1:17">
       <c r="A597" s="1">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B597" t="s">
         <v>48</v>
@@ -27560,7 +27560,7 @@
     </row>
     <row r="598" spans="1:17">
       <c r="A598" s="1">
-        <v>567</v>
+        <v>352</v>
       </c>
       <c r="B598" t="s">
         <v>48</v>
@@ -27610,7 +27610,7 @@
     </row>
     <row r="599" spans="1:17">
       <c r="A599" s="1">
-        <v>374</v>
+        <v>98</v>
       </c>
       <c r="B599" t="s">
         <v>48</v>
@@ -27660,7 +27660,7 @@
     </row>
     <row r="600" spans="1:17">
       <c r="A600" s="1">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="B600" t="s">
         <v>48</v>
@@ -27710,7 +27710,7 @@
     </row>
     <row r="601" spans="1:17">
       <c r="A601" s="1">
-        <v>501</v>
+        <v>632</v>
       </c>
       <c r="B601" t="s">
         <v>48</v>
@@ -27760,7 +27760,7 @@
     </row>
     <row r="602" spans="1:17">
       <c r="A602" s="1">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B602" t="s">
         <v>48</v>
@@ -27810,7 +27810,7 @@
     </row>
     <row r="603" spans="1:17">
       <c r="A603" s="1">
-        <v>632</v>
+        <v>386</v>
       </c>
       <c r="B603" t="s">
         <v>48</v>
@@ -27857,7 +27857,7 @@
     </row>
     <row r="604" spans="1:17">
       <c r="A604" s="1">
-        <v>535</v>
+        <v>33</v>
       </c>
       <c r="B604" t="s">
         <v>48</v>
@@ -27898,7 +27898,7 @@
     </row>
     <row r="605" spans="1:17">
       <c r="A605" s="1">
-        <v>281</v>
+        <v>418</v>
       </c>
       <c r="B605" t="s">
         <v>48</v>
@@ -27948,7 +27948,7 @@
     </row>
     <row r="606" spans="1:17">
       <c r="A606" s="1">
-        <v>406</v>
+        <v>65</v>
       </c>
       <c r="B606" t="s">
         <v>48</v>
@@ -27998,7 +27998,7 @@
     </row>
     <row r="607" spans="1:17">
       <c r="A607" s="1">
-        <v>93</v>
+        <v>479</v>
       </c>
       <c r="B607" t="s">
         <v>48</v>
@@ -28048,7 +28048,7 @@
     </row>
     <row r="608" spans="1:17">
       <c r="A608" s="1">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B608" t="s">
         <v>48</v>
@@ -28098,7 +28098,7 @@
     </row>
     <row r="609" spans="1:17">
       <c r="A609" s="1">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="B609" t="s">
         <v>48</v>
@@ -28151,7 +28151,7 @@
     </row>
     <row r="610" spans="1:17">
       <c r="A610" s="1">
-        <v>217</v>
+        <v>569</v>
       </c>
       <c r="B610" t="s">
         <v>48</v>
@@ -28192,7 +28192,7 @@
     </row>
     <row r="611" spans="1:17">
       <c r="A611" s="1">
-        <v>310</v>
+        <v>598</v>
       </c>
       <c r="B611" t="s">
         <v>48</v>
@@ -28236,7 +28236,7 @@
     </row>
     <row r="612" spans="1:17">
       <c r="A612" s="1">
-        <v>435</v>
+        <v>158</v>
       </c>
       <c r="B612" t="s">
         <v>48</v>
@@ -28280,7 +28280,7 @@
     </row>
     <row r="613" spans="1:17">
       <c r="A613" s="1">
-        <v>122</v>
+        <v>508</v>
       </c>
       <c r="B613" t="s">
         <v>48</v>
@@ -28321,7 +28321,7 @@
     </row>
     <row r="614" spans="1:17">
       <c r="A614" s="1">
-        <v>28</v>
+        <v>447</v>
       </c>
       <c r="B614" t="s">
         <v>48</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="615" spans="1:17">
       <c r="A615" s="1">
-        <v>322</v>
+        <v>110</v>
       </c>
       <c r="B615" t="s">
         <v>49</v>
@@ -28406,7 +28406,7 @@
     </row>
     <row r="616" spans="1:17">
       <c r="A616" s="1">
-        <v>579</v>
+        <v>301</v>
       </c>
       <c r="B616" t="s">
         <v>49</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="617" spans="1:17">
       <c r="A617" s="1">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="B617" t="s">
         <v>49</v>
@@ -28491,7 +28491,7 @@
     </row>
     <row r="618" spans="1:17">
       <c r="A618" s="1">
-        <v>547</v>
+        <v>332</v>
       </c>
       <c r="B618" t="s">
         <v>49</v>
@@ -28538,7 +28538,7 @@
     </row>
     <row r="619" spans="1:17">
       <c r="A619" s="1">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="B619" t="s">
         <v>49</v>
@@ -28585,7 +28585,7 @@
     </row>
     <row r="620" spans="1:17">
       <c r="A620" s="1">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="B620" t="s">
         <v>49</v>
@@ -28632,7 +28632,7 @@
     </row>
     <row r="621" spans="1:17">
       <c r="A621" s="1">
-        <v>479</v>
+        <v>610</v>
       </c>
       <c r="B621" t="s">
         <v>49</v>
@@ -28679,7 +28679,7 @@
     </row>
     <row r="622" spans="1:17">
       <c r="A622" s="1">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B622" t="s">
         <v>49</v>
@@ -28726,7 +28726,7 @@
     </row>
     <row r="623" spans="1:17">
       <c r="A623" s="1">
-        <v>610</v>
+        <v>364</v>
       </c>
       <c r="B623" t="s">
         <v>49</v>
@@ -28770,7 +28770,7 @@
     </row>
     <row r="624" spans="1:17">
       <c r="A624" s="1">
-        <v>513</v>
+        <v>11</v>
       </c>
       <c r="B624" t="s">
         <v>49</v>
@@ -28814,7 +28814,7 @@
     </row>
     <row r="625" spans="1:16">
       <c r="A625" s="1">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="B625" t="s">
         <v>49</v>
@@ -28861,7 +28861,7 @@
     </row>
     <row r="626" spans="1:16">
       <c r="A626" s="1">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="B626" t="s">
         <v>49</v>
@@ -28908,7 +28908,7 @@
     </row>
     <row r="627" spans="1:16">
       <c r="A627" s="1">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="B627" t="s">
         <v>49</v>
@@ -28955,7 +28955,7 @@
     </row>
     <row r="628" spans="1:16">
       <c r="A628" s="1">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B628" t="s">
         <v>49</v>
@@ -29002,7 +29002,7 @@
     </row>
     <row r="629" spans="1:16">
       <c r="A629" s="1">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="B629" t="s">
         <v>49</v>
@@ -29049,7 +29049,7 @@
     </row>
     <row r="630" spans="1:16">
       <c r="A630" s="1">
-        <v>200</v>
+        <v>552</v>
       </c>
       <c r="B630" t="s">
         <v>49</v>
@@ -29090,7 +29090,7 @@
     </row>
     <row r="631" spans="1:16">
       <c r="A631" s="1">
-        <v>293</v>
+        <v>581</v>
       </c>
       <c r="B631" t="s">
         <v>49</v>
@@ -29131,7 +29131,7 @@
     </row>
     <row r="632" spans="1:16">
       <c r="A632" s="1">
-        <v>418</v>
+        <v>141</v>
       </c>
       <c r="B632" t="s">
         <v>49</v>
@@ -29172,7 +29172,7 @@
     </row>
     <row r="633" spans="1:16">
       <c r="A633" s="1">
-        <v>105</v>
+        <v>491</v>
       </c>
       <c r="B633" t="s">
         <v>49</v>
@@ -29213,7 +29213,7 @@
     </row>
     <row r="634" spans="1:16">
       <c r="A634" s="1">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="B634" t="s">
         <v>49</v>
